--- a/DFC/intelliparser/samples/2012MSTCMedia.xlsx
+++ b/DFC/intelliparser/samples/2012MSTCMedia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,18 +60,6 @@
   </si>
   <si>
     <t>syz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15905197XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15861812XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15950566XXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,7 +459,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -500,11 +488,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>15905197000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
@@ -514,11 +502,11 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1">
+        <v>15950566000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
@@ -528,11 +516,11 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>15861812000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1"/>
